--- a/Clue.xlsx
+++ b/Clue.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="28">
   <si>
     <t>B</t>
   </si>
@@ -93,6 +93,21 @@
   </si>
   <si>
     <t>KD</t>
+  </si>
+  <si>
+    <t>Light Blue: Test Targets</t>
+  </si>
+  <si>
+    <t>Salmon: Walkway Scenarios</t>
+  </si>
+  <si>
+    <t>Yellow: Adjacency list tests, inside room</t>
+  </si>
+  <si>
+    <t>Purple: Adjacency lists tests, room exits</t>
+  </si>
+  <si>
+    <t>Light green: Adjacency lists beside room entrance</t>
   </si>
 </sst>
 </file>
@@ -114,7 +129,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -145,6 +160,42 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -158,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -166,6 +217,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,16 +507,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:U28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" customWidth="1"/>
+    <col min="3" max="3" width="4" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" customWidth="1"/>
+    <col min="5" max="5" width="3.28515625" customWidth="1"/>
+    <col min="6" max="6" width="4.140625" customWidth="1"/>
+    <col min="7" max="7" width="3.140625" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" customWidth="1"/>
+    <col min="9" max="9" width="3" customWidth="1"/>
+    <col min="10" max="10" width="3.42578125" customWidth="1"/>
+    <col min="11" max="11" width="3.5703125" customWidth="1"/>
+    <col min="12" max="12" width="3.7109375" customWidth="1"/>
+    <col min="13" max="14" width="3.28515625" customWidth="1"/>
+    <col min="15" max="16" width="3.42578125" customWidth="1"/>
+    <col min="17" max="17" width="3.140625" customWidth="1"/>
+    <col min="18" max="18" width="2.7109375" customWidth="1"/>
+    <col min="19" max="19" width="3.5703125" customWidth="1"/>
+    <col min="20" max="21" width="3" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -516,7 +597,7 @@
         <v>6</v>
       </c>
       <c r="U1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -529,7 +610,7 @@
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="13" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -581,7 +662,7 @@
         <v>6</v>
       </c>
       <c r="U2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -621,7 +702,7 @@
       <c r="L3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="8" t="s">
         <v>4</v>
       </c>
       <c r="N3" s="3" t="s">
@@ -646,7 +727,7 @@
         <v>6</v>
       </c>
       <c r="U3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -656,7 +737,7 @@
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -711,7 +792,7 @@
         <v>6</v>
       </c>
       <c r="U4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -733,7 +814,7 @@
       <c r="F5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -776,7 +857,7 @@
         <v>6</v>
       </c>
       <c r="U5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -798,19 +879,19 @@
       <c r="F6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="11" t="s">
         <v>1</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="12" t="s">
         <v>1</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="13" t="s">
         <v>1</v>
       </c>
       <c r="L6" s="3" t="s">
@@ -819,10 +900,10 @@
       <c r="M6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="N6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="5" t="s">
+      <c r="O6" s="12" t="s">
         <v>1</v>
       </c>
       <c r="P6" s="3" t="s">
@@ -834,14 +915,14 @@
       <c r="R6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="S6" s="3" t="s">
+      <c r="S6" s="8" t="s">
         <v>6</v>
       </c>
       <c r="T6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="U6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -860,19 +941,19 @@
       <c r="E7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="12" t="s">
         <v>1</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="14" t="s">
         <v>1</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="12" t="s">
         <v>1</v>
       </c>
       <c r="K7" s="5" t="s">
@@ -906,7 +987,7 @@
         <v>6</v>
       </c>
       <c r="U7">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -928,13 +1009,13 @@
       <c r="F8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="12" t="s">
         <v>1</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="12" t="s">
         <v>1</v>
       </c>
       <c r="J8" s="5" t="s">
@@ -955,7 +1036,7 @@
       <c r="O8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="P8" s="5" t="s">
+      <c r="P8" s="13" t="s">
         <v>1</v>
       </c>
       <c r="Q8" s="3" t="s">
@@ -971,14 +1052,14 @@
         <v>6</v>
       </c>
       <c r="U8">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1036,7 +1117,7 @@
         <v>6</v>
       </c>
       <c r="U9">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -1094,14 +1175,14 @@
       <c r="R10" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="S10" s="5" t="s">
+      <c r="S10" s="11" t="s">
         <v>1</v>
       </c>
       <c r="T10" s="5" t="s">
         <v>1</v>
       </c>
       <c r="U10">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -1147,7 +1228,7 @@
       <c r="N11" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="O11" s="5" t="s">
+      <c r="O11" s="13" t="s">
         <v>1</v>
       </c>
       <c r="P11" s="5" t="s">
@@ -1159,86 +1240,86 @@
       <c r="R11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="S11" s="1" t="s">
+      <c r="S11" s="9" t="s">
         <v>17</v>
       </c>
       <c r="T11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="U11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="U12">
         <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="U12">
-        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -1283,7 +1364,7 @@
       <c r="P13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Q13" s="2" t="s">
+      <c r="Q13" s="7" t="s">
         <v>8</v>
       </c>
       <c r="R13" s="2" t="s">
@@ -1296,72 +1377,72 @@
         <v>8</v>
       </c>
       <c r="U13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="U14">
         <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="S14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="T14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="U14">
-        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -1374,7 +1455,7 @@
       <c r="C15" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="12" t="s">
         <v>1</v>
       </c>
       <c r="E15" s="5" t="s">
@@ -1413,7 +1494,7 @@
       <c r="P15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="Q15" s="9" t="s">
         <v>18</v>
       </c>
       <c r="R15" s="1" t="s">
@@ -1426,17 +1507,17 @@
         <v>8</v>
       </c>
       <c r="U15">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="12" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="5" t="s">
@@ -1472,26 +1553,26 @@
       <c r="N16" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="O16" s="5" t="s">
+      <c r="O16" s="12" t="s">
         <v>1</v>
       </c>
       <c r="P16" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="Q16" s="5" t="s">
+      <c r="Q16" s="12" t="s">
         <v>1</v>
       </c>
       <c r="R16" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="S16" s="5" t="s">
+      <c r="S16" s="12" t="s">
         <v>1</v>
       </c>
       <c r="T16" s="5" t="s">
         <v>1</v>
       </c>
       <c r="U16">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
@@ -1534,19 +1615,19 @@
       <c r="M17" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="N17" s="5" t="s">
+      <c r="N17" s="12" t="s">
         <v>1</v>
       </c>
       <c r="O17" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="P17" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="R17" s="5" t="s">
+      <c r="P17" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="R17" s="12" t="s">
         <v>1</v>
       </c>
       <c r="S17" s="2" t="s">
@@ -1556,7 +1637,7 @@
         <v>10</v>
       </c>
       <c r="U17">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -1575,10 +1656,10 @@
       <c r="E18" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G18" s="1" t="s">
+      <c r="F18" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="9" t="s">
         <v>20</v>
       </c>
       <c r="H18" s="2" t="s">
@@ -1596,7 +1677,7 @@
       <c r="L18" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M18" s="5" t="s">
+      <c r="M18" s="12" t="s">
         <v>1</v>
       </c>
       <c r="N18" s="5" t="s">
@@ -1621,7 +1702,7 @@
         <v>10</v>
       </c>
       <c r="U18">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
@@ -1658,13 +1739,13 @@
       <c r="K19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L19" s="5" t="s">
+      <c r="L19" s="13" t="s">
         <v>1</v>
       </c>
       <c r="M19" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="N19" s="5" t="s">
+      <c r="N19" s="12" t="s">
         <v>1</v>
       </c>
       <c r="O19" s="2" t="s">
@@ -1686,7 +1767,7 @@
         <v>10</v>
       </c>
       <c r="U19">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -1714,7 +1795,7 @@
       <c r="H20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" s="7" t="s">
         <v>7</v>
       </c>
       <c r="J20" s="2" t="s">
@@ -1726,19 +1807,19 @@
       <c r="L20" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M20" s="5" t="s">
+      <c r="M20" s="12" t="s">
         <v>1</v>
       </c>
       <c r="N20" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="O20" s="5" t="s">
+      <c r="O20" s="12" t="s">
         <v>1</v>
       </c>
       <c r="P20" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="Q20" s="5" t="s">
+      <c r="Q20" s="12" t="s">
         <v>1</v>
       </c>
       <c r="R20" s="1" t="s">
@@ -1751,7 +1832,7 @@
         <v>10</v>
       </c>
       <c r="U20">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
@@ -1788,22 +1869,22 @@
       <c r="K21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L21" s="5" t="s">
+      <c r="L21" s="12" t="s">
         <v>1</v>
       </c>
       <c r="M21" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="N21" s="5" t="s">
+      <c r="N21" s="14" t="s">
         <v>1</v>
       </c>
       <c r="O21" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="P21" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="5" t="s">
+      <c r="P21" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="12" t="s">
         <v>1</v>
       </c>
       <c r="R21" s="2" t="s">
@@ -1816,7 +1897,7 @@
         <v>10</v>
       </c>
       <c r="U21">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
@@ -1879,6 +1960,32 @@
       </c>
       <c r="T22">
         <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="16"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
